--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065AB82-3474-4AF4-B266-54B312C34751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E957DEA-64F7-41DB-9660-B28DBAE6C651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>HRNet</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>CE</t>
+  </si>
+  <si>
+    <t>no-attention: 0.9275 - 499</t>
+  </si>
+  <si>
+    <t>SE: 0.9300 - 889</t>
+  </si>
+  <si>
+    <t>CBAM: 0.9297 - 868</t>
+  </si>
+  <si>
+    <t>SA: 0.928349 - 880 (training)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -564,4 +577,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32EB88F-1A2F-42A7-9FEE-C0B7F24B2A51}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E957DEA-64F7-41DB-9660-B28DBAE6C651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CBCF76-0BDF-421E-AD26-1A61522CE1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>HRNet</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>SA: 0.928349 - 880 (training)</t>
+  </si>
+  <si>
+    <t>w48-OCR</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +576,29 @@
         <v>65846401</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>70350466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -583,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32EB88F-1A2F-42A7-9FEE-C0B7F24B2A51}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CBCF76-0BDF-421E-AD26-1A61522CE1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0364E-8B03-4137-B2A8-22BCA87D8A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>HRNet</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Loss</t>
-  </si>
-  <si>
-    <t>Dice-Focal-BCE</t>
   </si>
   <si>
     <t>CE</t>
@@ -445,7 +442,7 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>0.79759999999999998</v>
+        <v>0.80789999999999995</v>
       </c>
       <c r="G3" s="4">
         <v>57287273</v>
@@ -518,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -541,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -564,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -581,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -617,22 +614,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0364E-8B03-4137-B2A8-22BCA87D8A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61543E0D-BE06-4E1B-A883-875674C03D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>HRNet</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>w48-OCR</t>
+  </si>
+  <si>
+    <t>Deeplabv3</t>
+  </si>
+  <si>
+    <t>300 epochs</t>
+  </si>
+  <si>
+    <t>BCE</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -159,6 +168,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,26 @@
       </c>
       <c r="G7" s="4">
         <v>70350466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>59339169</v>
       </c>
     </row>
   </sheetData>

--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61543E0D-BE06-4E1B-A883-875674C03D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A350658-C89E-4DA4-B12C-235ACE666EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>HRNet</t>
   </si>
@@ -115,7 +115,10 @@
     <t>300 epochs</t>
   </si>
   <si>
-    <t>BCE</t>
+    <t>PSPNet</t>
+  </si>
+  <si>
+    <t>Weighted BCE</t>
   </si>
 </sst>
 </file>
@@ -451,9 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -616,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -625,6 +628,26 @@
         <v>0.79710000000000003</v>
       </c>
       <c r="G8" s="4">
+        <v>59339169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="G9" s="4">
         <v>59339169</v>
       </c>
     </row>

--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A350658-C89E-4DA4-B12C-235ACE666EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC08DD9-7BB1-4BB1-AD9E-D83DA7B81B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
         <v>0.79649999999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>59339169</v>
+        <v>68058306</v>
       </c>
     </row>
   </sheetData>

--- a/w9/experiments.xlsx
+++ b/w9/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC08DD9-7BB1-4BB1-AD9E-D83DA7B81B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D139A61-B031-4732-B96A-2906D86C4E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
